--- a/Weight and Cost Breakdown.xlsx
+++ b/Weight and Cost Breakdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\Projects\SmallKat\Smallkat Github Folder\Luna-CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400F8B2-3104-406D-9C1A-62BDC98BE5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC813D-6F01-433A-B1B3-CFB3F85E0746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="23025" windowHeight="12945" xr2:uid="{334515C0-4B78-4EB9-B9FE-864391EA7A58}"/>
+    <workbookView xWindow="60" yWindow="60" windowWidth="23025" windowHeight="12945" xr2:uid="{334515C0-4B78-4EB9-B9FE-864391EA7A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>M2x20</t>
-  </si>
-  <si>
     <t>M3x45</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Plastic</t>
+  </si>
+  <si>
+    <t>M3x20</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,30 +453,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <f>2*4</f>
@@ -506,7 +506,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>3*4</f>
@@ -535,7 +535,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>3*4</f>
@@ -565,7 +565,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f>3*4</f>
@@ -594,7 +594,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <f>5*4</f>
@@ -623,7 +623,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>850</v>
